--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87667B8D-9149-7442-8B5A-D471F3046414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E261A95D-8DB3-6645-BB6F-EDF7C8A74C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1245,7 +1245,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="23">
+    <row r="49" spans="1:9" ht="23">
       <c r="A49">
         <v>20210713</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="23">
+    <row r="50" spans="1:9" ht="23">
       <c r="A50">
         <v>20210713</v>
       </c>
@@ -1270,6 +1270,705 @@
         <v>1.11E-2</v>
       </c>
       <c r="D50" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="23">
+      <c r="A51">
+        <v>20210714</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="23">
+      <c r="A52">
+        <v>20210714</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="23">
+      <c r="A53">
+        <v>20210714</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="23">
+      <c r="A54">
+        <v>20210714</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="23">
+      <c r="A55">
+        <v>20210714</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="23">
+      <c r="A56">
+        <v>20210714</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="23">
+      <c r="A57">
+        <v>20210714</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.40450000000000003</v>
+      </c>
+      <c r="D57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="23">
+      <c r="A58">
+        <v>20210714</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="23">
+      <c r="A59">
+        <v>20210714</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="23">
+      <c r="A60">
+        <v>20210714</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="23">
+      <c r="A61">
+        <v>20210714</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="23">
+      <c r="A62">
+        <v>20210714</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="23">
+      <c r="A63">
+        <v>20210714</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="3">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="23">
+      <c r="A64">
+        <v>20210714</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="23">
+      <c r="A65">
+        <v>20210714</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="23">
+      <c r="A66">
+        <v>20210714</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="23">
+      <c r="A67">
+        <v>20210714</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="23">
+      <c r="A68">
+        <v>20210714</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="23">
+      <c r="A69">
+        <v>20210714</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="23">
+      <c r="A70">
+        <v>20210714</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.2366</v>
+      </c>
+      <c r="D70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="23">
+      <c r="A71">
+        <v>20210714</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8.6599999999999996E-2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="23">
+      <c r="A72">
+        <v>20210714</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="23">
+      <c r="A73">
+        <v>20210714</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="23">
+      <c r="A74">
+        <v>20210714</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="23">
+      <c r="A75">
+        <v>20210714</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D75" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="23">
+      <c r="A76">
+        <v>20210714</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="23">
+      <c r="A77">
+        <v>20210714</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.43390000000000001</v>
+      </c>
+      <c r="D77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="23">
+      <c r="A78">
+        <v>20210714</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="23">
+      <c r="A79">
+        <v>20210714</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="23">
+      <c r="A80">
+        <v>20210714</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="3">
+        <v>2.18E-2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="23">
+      <c r="A81">
+        <v>20210714</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="23">
+      <c r="A82">
+        <v>20210714</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="23">
+      <c r="A83">
+        <v>20210714</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="23">
+      <c r="A84">
+        <v>20210714</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="23">
+      <c r="A85">
+        <v>20210714</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="23">
+      <c r="A86">
+        <v>20210714</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="23">
+      <c r="A87">
+        <v>20210714</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87" s="3">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="23">
+      <c r="A88">
+        <v>20210714</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="23">
+      <c r="A89">
+        <v>20210714</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="3">
+        <v>9.06E-2</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" ht="23">
+      <c r="A90">
+        <v>20210714</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C90" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="23">
+      <c r="A91">
+        <v>20210714</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="3">
+        <v>4.7699999999999999E-2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="23">
+      <c r="A92">
+        <v>20210714</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3.09E-2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="23">
+      <c r="A93">
+        <v>20210714</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="23">
+      <c r="A94">
+        <v>20210714</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="23">
+      <c r="A95">
+        <v>20210714</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="23">
+      <c r="A96">
+        <v>20210714</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="3">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="23">
+      <c r="A97">
+        <v>20210714</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="3">
+        <v>9.0200000000000002E-2</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="23">
+      <c r="A98">
+        <v>20210714</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="23">
+      <c r="A99">
+        <v>20210714</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D99" t="s">
         <v>35</v>
       </c>
     </row>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E261A95D-8DB3-6645-BB6F-EDF7C8A74C81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D92B9-AE2A-0846-A2E5-B8544D052778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1972,6 +1972,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="100" spans="1:4" ht="23">
+      <c r="A100">
+        <v>20210715</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="23">
+      <c r="A101">
+        <v>20210715</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="23">
+      <c r="A102">
+        <v>20210715</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="23">
+      <c r="A103">
+        <v>20210715</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="23">
+      <c r="A104">
+        <v>20210715</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="3">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="23">
+      <c r="A105">
+        <v>20210715</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="23">
+      <c r="A106">
+        <v>20210715</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="3">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="D106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="23">
+      <c r="A107">
+        <v>20210715</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="23">
+      <c r="A108">
+        <v>20210715</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="23">
+      <c r="A109">
+        <v>20210715</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="23">
+      <c r="A110">
+        <v>20210715</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="23">
+      <c r="A111">
+        <v>20210715</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="23">
+      <c r="A112">
+        <v>20210715</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="3">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="23">
+      <c r="A113">
+        <v>20210715</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="23">
+      <c r="A114">
+        <v>20210715</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="23">
+      <c r="A115">
+        <v>20210715</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="23">
+      <c r="A116">
+        <v>20210715</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="23">
+      <c r="A117">
+        <v>20210715</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D117" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="23">
+      <c r="A118">
+        <v>20210715</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="3">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="23">
+      <c r="A119">
+        <v>20210715</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C119" s="3">
+        <v>0.26119999999999999</v>
+      </c>
+      <c r="D119" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="23">
+      <c r="A120">
+        <v>20210715</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="3">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="23">
+      <c r="A121">
+        <v>20210715</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="23">
+      <c r="A122">
+        <v>20210715</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" s="3">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="23">
+      <c r="A123">
+        <v>20210715</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="23">
+      <c r="A124">
+        <v>20210715</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C124" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D124" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="23">
+      <c r="A125">
+        <v>20210715</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="23">
+      <c r="A126">
+        <v>20210715</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C126" s="3">
+        <v>0.4763</v>
+      </c>
+      <c r="D126" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="23">
+      <c r="A127">
+        <v>20210715</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="3">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="23">
+      <c r="A128">
+        <v>20210715</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128" s="3">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="23">
+      <c r="A129">
+        <v>20210715</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C129" s="3">
+        <v>2.76E-2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="23">
+      <c r="A130">
+        <v>20210715</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="23">
+      <c r="A131">
+        <v>20210715</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" s="3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="23">
+      <c r="A132">
+        <v>20210715</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="3">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="23">
+      <c r="A133">
+        <v>20210715</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="23">
+      <c r="A134">
+        <v>20210715</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="23">
+      <c r="A135">
+        <v>20210715</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C135" s="3">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="23">
+      <c r="A136">
+        <v>20210715</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="3">
+        <v>0.82169999999999999</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="23">
+      <c r="A137">
+        <v>20210715</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="23">
+      <c r="A138">
+        <v>20210715</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C138" s="3">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="23">
+      <c r="A139">
+        <v>20210715</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C139" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="23">
+      <c r="A140">
+        <v>20210715</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140" s="3">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="23">
+      <c r="A141">
+        <v>20210715</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="23">
+      <c r="A142">
+        <v>20210715</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="23">
+      <c r="A143">
+        <v>20210715</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="23">
+      <c r="A144">
+        <v>20210715</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="23">
+      <c r="A145">
+        <v>20210715</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" s="3">
+        <v>0.57789999999999997</v>
+      </c>
+      <c r="D145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="23">
+      <c r="A146">
+        <v>20210715</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="3">
+        <v>6.83E-2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="23">
+      <c r="A147">
+        <v>20210715</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="23">
+      <c r="A148">
+        <v>20210715</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528D92B9-AE2A-0846-A2E5-B8544D052778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A009F3-F80C-494F-A322-1D7DF72543F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B129" sqref="B129"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="B178" sqref="B178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2658,6 +2658,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="149" spans="1:4" ht="23">
+      <c r="A149">
+        <v>20210716</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="23">
+      <c r="A150">
+        <v>20210716</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D150" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="23">
+      <c r="A151">
+        <v>20210716</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="23">
+      <c r="A152">
+        <v>20210716</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D152" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="23">
+      <c r="A153">
+        <v>20210716</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C153" s="3">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="23">
+      <c r="A154">
+        <v>20210716</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C154" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="23">
+      <c r="A155">
+        <v>20210716</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="3">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="D155" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="23">
+      <c r="A156">
+        <v>20210716</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C156" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D156" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="23">
+      <c r="A157">
+        <v>20210716</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="23">
+      <c r="A158">
+        <v>20210716</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="23">
+      <c r="A159">
+        <v>20210716</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="23">
+      <c r="A160">
+        <v>20210716</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D160" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="23">
+      <c r="A161">
+        <v>20210716</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161" s="3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="D161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="23">
+      <c r="A162">
+        <v>20210716</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C162" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D162" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="23">
+      <c r="A163">
+        <v>20210716</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="23">
+      <c r="A164">
+        <v>20210716</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C164" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="23">
+      <c r="A165">
+        <v>20210716</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="23">
+      <c r="A166">
+        <v>20210716</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C166" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="23">
+      <c r="A167">
+        <v>20210716</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="23">
+      <c r="A168">
+        <v>20210716</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="3">
+        <v>0.39040000000000002</v>
+      </c>
+      <c r="D168" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="23">
+      <c r="A169">
+        <v>20210716</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D169" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="23">
+      <c r="A170">
+        <v>20210716</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="23">
+      <c r="A171">
+        <v>20210716</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C171" s="3">
+        <v>3.61E-2</v>
+      </c>
+      <c r="D171" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="23">
+      <c r="A172">
+        <v>20210716</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D172" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="23">
+      <c r="A173">
+        <v>20210716</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="23">
+      <c r="A174">
+        <v>20210716</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3.56E-2</v>
+      </c>
+      <c r="D174" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="23">
+      <c r="A175">
+        <v>20210716</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="3">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="D175" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="23">
+      <c r="A176">
+        <v>20210716</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="3">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="D176" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="23">
+      <c r="A177">
+        <v>20210716</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D177" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="23">
+      <c r="A178">
+        <v>20210716</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="23">
+      <c r="A179">
+        <v>20210716</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D179" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="23">
+      <c r="A180">
+        <v>20210716</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="23">
+      <c r="A181">
+        <v>20210716</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C181" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="23">
+      <c r="A182">
+        <v>20210716</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C182" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="23">
+      <c r="A183">
+        <v>20210716</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="23">
+      <c r="A184">
+        <v>20210716</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C184" s="3">
+        <v>3.49E-2</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="23">
+      <c r="A185">
+        <v>20210716</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C185" s="3">
+        <v>0.76890000000000003</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="23">
+      <c r="A186">
+        <v>20210716</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D186" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="23">
+      <c r="A187">
+        <v>20210716</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="3">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="23">
+      <c r="A188">
+        <v>20210716</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C188" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="23">
+      <c r="A189">
+        <v>20210716</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="23">
+      <c r="A190">
+        <v>20210716</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="D190" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="23">
+      <c r="A191">
+        <v>20210716</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="3">
+        <v>9.7299999999999998E-2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="23">
+      <c r="A192">
+        <v>20210716</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C192" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="23">
+      <c r="A193">
+        <v>20210716</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D193" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="23">
+      <c r="A194">
+        <v>20210716</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194" s="3">
+        <v>6.6100000000000006E-2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="23">
+      <c r="A195">
+        <v>20210716</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" s="3">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="D195" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="23">
+      <c r="A196">
+        <v>20210716</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D196" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="23">
+      <c r="A197">
+        <v>20210716</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197" s="3">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="D197" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A009F3-F80C-494F-A322-1D7DF72543F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945E225-58A6-6D41-9C3D-6DC07CB53097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B178" sqref="B178"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3344,6 +3344,693 @@
         <v>35</v>
       </c>
     </row>
+    <row r="198" spans="1:4" ht="23">
+      <c r="A198">
+        <v>20210719</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D198" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="23">
+      <c r="A199">
+        <v>20210719</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C199" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D199" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="23">
+      <c r="A200">
+        <v>20210719</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D200" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="23">
+      <c r="A201">
+        <v>20210719</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D201" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="23">
+      <c r="A202">
+        <v>20210719</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C202" s="3">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="D202" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="23">
+      <c r="A203">
+        <v>20210719</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C203" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="23">
+      <c r="A204">
+        <v>20210719</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C204" s="3">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="D204" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="23">
+      <c r="A205">
+        <v>20210719</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D205" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="23">
+      <c r="A206">
+        <v>20210719</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="23">
+      <c r="A207">
+        <v>20210719</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1.03E-2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="23">
+      <c r="A208">
+        <v>20210719</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C208" s="3">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" ht="23">
+      <c r="A209">
+        <v>20210719</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>34</v>
+      </c>
+      <c r="J209" s="2"/>
+    </row>
+    <row r="210" spans="1:10" ht="23">
+      <c r="A210">
+        <v>20210719</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210" s="3">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="D210" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" ht="23">
+      <c r="A211">
+        <v>20210719</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" ht="23">
+      <c r="A212">
+        <v>20210719</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D212" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" ht="23">
+      <c r="A213">
+        <v>20210719</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="D213" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" ht="23">
+      <c r="A214">
+        <v>20210719</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D214" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" ht="23">
+      <c r="A215">
+        <v>20210719</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" ht="23">
+      <c r="A216">
+        <v>20210719</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C216" s="3">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" ht="23">
+      <c r="A217">
+        <v>20210719</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="3">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="D217" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" ht="23">
+      <c r="A218">
+        <v>20210719</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="3">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" ht="23">
+      <c r="A219">
+        <v>20210719</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C219" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" ht="23">
+      <c r="A220">
+        <v>20210719</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C220" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" ht="23">
+      <c r="A221">
+        <v>20210719</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D221" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" ht="23">
+      <c r="A222">
+        <v>20210719</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C222" s="3">
+        <v>1.14E-2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" ht="23">
+      <c r="A223">
+        <v>20210719</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" ht="23">
+      <c r="A224">
+        <v>20210719</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C224" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="D224" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="23">
+      <c r="A225">
+        <v>20210719</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C225" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="23">
+      <c r="A226">
+        <v>20210719</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1.72E-2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="23">
+      <c r="A227">
+        <v>20210719</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C227" s="3">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="23">
+      <c r="A228">
+        <v>20210719</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D228" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="23">
+      <c r="A229">
+        <v>20210719</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C229" s="3">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="23">
+      <c r="A230">
+        <v>20210719</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="3">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="23">
+      <c r="A231">
+        <v>20210719</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="23">
+      <c r="A232">
+        <v>20210719</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="23">
+      <c r="A233">
+        <v>20210719</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="3">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="23">
+      <c r="A234">
+        <v>20210719</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="3">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="D234" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="23">
+      <c r="A235">
+        <v>20210719</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="23">
+      <c r="A236">
+        <v>20210719</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C236" s="3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="23">
+      <c r="A237">
+        <v>20210719</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C237" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="23">
+      <c r="A238">
+        <v>20210719</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="3">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="23">
+      <c r="A239">
+        <v>20210719</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" s="3">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="D239" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="23">
+      <c r="A240">
+        <v>20210719</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C240" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D240" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="23">
+      <c r="A241">
+        <v>20210719</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D241" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="23">
+      <c r="A242">
+        <v>20210719</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D242" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="23">
+      <c r="A243">
+        <v>20210719</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C243" s="3">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="D243" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="23">
+      <c r="A244">
+        <v>20210719</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="3">
+        <v>9.8500000000000004E-2</v>
+      </c>
+      <c r="D244" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="23">
+      <c r="A245">
+        <v>20210719</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C245" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="23">
+      <c r="A246">
+        <v>20210719</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D945E225-58A6-6D41-9C3D-6DC07CB53097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFB877-9EBA-A147-AFA9-D83E5DAD4A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="C423" sqref="C423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4031,6 +4031,2761 @@
         <v>35</v>
       </c>
     </row>
+    <row r="247" spans="1:4" ht="23">
+      <c r="A247">
+        <v>20210720</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="23">
+      <c r="A248">
+        <v>20210720</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C248" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="23">
+      <c r="A249">
+        <v>20210720</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D249" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="23">
+      <c r="A250">
+        <v>20210720</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C250" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D250" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="23">
+      <c r="A251">
+        <v>20210720</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C251" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D251" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="23">
+      <c r="A252">
+        <v>20210720</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C252" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D252" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="23">
+      <c r="A253">
+        <v>20210720</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="3">
+        <v>0.32140000000000002</v>
+      </c>
+      <c r="D253" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="23">
+      <c r="A254">
+        <v>20210720</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="23">
+      <c r="A255">
+        <v>20210720</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C255" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D255" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="23">
+      <c r="A256">
+        <v>20210720</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" s="3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D256" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="23">
+      <c r="A257">
+        <v>20210720</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D257" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="23">
+      <c r="A258">
+        <v>20210720</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D258" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="23">
+      <c r="A259">
+        <v>20210720</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C259" s="3">
+        <v>5.3100000000000001E-2</v>
+      </c>
+      <c r="D259" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="23">
+      <c r="A260">
+        <v>20210720</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C260" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="23">
+      <c r="A261">
+        <v>20210720</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D261" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="23">
+      <c r="A262">
+        <v>20210720</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C262" s="3">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D262" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="23">
+      <c r="A263">
+        <v>20210720</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C263" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D263" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="23">
+      <c r="A264">
+        <v>20210720</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D264" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="23">
+      <c r="A265">
+        <v>20210720</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" s="3">
+        <v>0.1026</v>
+      </c>
+      <c r="D265" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="23">
+      <c r="A266">
+        <v>20210720</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C266" s="3">
+        <v>0.25140000000000001</v>
+      </c>
+      <c r="D266" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="23">
+      <c r="A267">
+        <v>20210720</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="3">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="D267" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="23">
+      <c r="A268">
+        <v>20210720</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="23">
+      <c r="A269">
+        <v>20210720</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C269" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="23">
+      <c r="A270">
+        <v>20210720</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C270" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D270" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="23">
+      <c r="A271">
+        <v>20210720</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C271" s="3">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D271" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="23">
+      <c r="A272">
+        <v>20210720</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D272" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="23">
+      <c r="A273">
+        <v>20210720</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C273" s="3">
+        <v>0.42649999999999999</v>
+      </c>
+      <c r="D273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="23">
+      <c r="A274">
+        <v>20210720</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D274" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="23">
+      <c r="A275">
+        <v>20210720</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C275" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="D275" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="23">
+      <c r="A276">
+        <v>20210720</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C276" s="3">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="D276" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="23">
+      <c r="A277">
+        <v>20210720</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C277" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D277" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="23">
+      <c r="A278">
+        <v>20210720</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" s="3">
+        <v>3.2300000000000002E-2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="23">
+      <c r="A279">
+        <v>20210720</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="3">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="D279" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="23">
+      <c r="A280">
+        <v>20210720</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C280" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D280" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="23">
+      <c r="A281">
+        <v>20210720</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C281" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D281" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="23">
+      <c r="A282">
+        <v>20210720</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C282" s="3">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="D282" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="23">
+      <c r="A283">
+        <v>20210720</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0.74480000000000002</v>
+      </c>
+      <c r="D283" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="23">
+      <c r="A284">
+        <v>20210720</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C284" s="3">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D284" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="23">
+      <c r="A285">
+        <v>20210720</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C285" s="3">
+        <v>5.33E-2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="23">
+      <c r="A286">
+        <v>20210720</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C286" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="23">
+      <c r="A287">
+        <v>20210720</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="3">
+        <v>0.1026</v>
+      </c>
+      <c r="D287" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="23">
+      <c r="A288">
+        <v>20210720</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" s="3">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="23">
+      <c r="A289">
+        <v>20210720</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C289" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="23">
+      <c r="A290">
+        <v>20210720</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="23">
+      <c r="A291">
+        <v>20210720</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="3">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D291" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="23">
+      <c r="A292">
+        <v>20210720</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" s="3">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="D292" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="23">
+      <c r="A293">
+        <v>20210720</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293" s="3">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="D293" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="23">
+      <c r="A294">
+        <v>20210720</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D294" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="23">
+      <c r="A295">
+        <v>20210720</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D295" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="23">
+      <c r="A296">
+        <v>20210721</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D296" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="23">
+      <c r="A297">
+        <v>20210721</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C297" s="3">
+        <v>5.3E-3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="23">
+      <c r="A298">
+        <v>20210721</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D298" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="23">
+      <c r="A299">
+        <v>20210721</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C299" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D299" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="23">
+      <c r="A300">
+        <v>20210721</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D300" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="23">
+      <c r="A301">
+        <v>20210721</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C301" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="23">
+      <c r="A302">
+        <v>20210721</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C302" s="3">
+        <v>0.40689999999999998</v>
+      </c>
+      <c r="D302" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="23">
+      <c r="A303">
+        <v>20210721</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C303" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D303" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="23">
+      <c r="A304">
+        <v>20210721</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D304" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="23">
+      <c r="A305">
+        <v>20210721</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C305" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D305" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="23">
+      <c r="A306">
+        <v>20210721</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C306" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D306" t="s">
+        <v>34</v>
+      </c>
+      <c r="H306" s="2"/>
+    </row>
+    <row r="307" spans="1:8" ht="23">
+      <c r="A307">
+        <v>20210721</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C307" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D307" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="23">
+      <c r="A308">
+        <v>20210721</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C308" s="3">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" ht="23">
+      <c r="A309">
+        <v>20210721</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C309" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D309" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="23">
+      <c r="A310">
+        <v>20210721</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D310" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" ht="23">
+      <c r="A311">
+        <v>20210721</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C311" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="23">
+      <c r="A312">
+        <v>20210721</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C312" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D312" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="23">
+      <c r="A313">
+        <v>20210721</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D313" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" ht="23">
+      <c r="A314">
+        <v>20210721</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" s="3">
+        <v>6.9099999999999995E-2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" ht="23">
+      <c r="A315">
+        <v>20210721</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0.2384</v>
+      </c>
+      <c r="D315" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="23">
+      <c r="A316">
+        <v>20210721</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="D316" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="23">
+      <c r="A317">
+        <v>20210721</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C317" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D317" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="23">
+      <c r="A318">
+        <v>20210721</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C318" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D318" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="23">
+      <c r="A319">
+        <v>20210721</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C319" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D319" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="23">
+      <c r="A320">
+        <v>20210721</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C320" s="3">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D320" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="23">
+      <c r="A321">
+        <v>20210721</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C321" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D321" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="23">
+      <c r="A322">
+        <v>20210721</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C322" s="3">
+        <v>0.40150000000000002</v>
+      </c>
+      <c r="D322" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" ht="23">
+      <c r="A323">
+        <v>20210721</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C323" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D323" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="23">
+      <c r="A324">
+        <v>20210721</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C324" s="3">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D324" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" ht="23">
+      <c r="A325">
+        <v>20210721</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C325" s="3">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D325" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" ht="23">
+      <c r="A326">
+        <v>20210721</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C326" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D326" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="23">
+      <c r="A327">
+        <v>20210721</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" s="3">
+        <v>5.16E-2</v>
+      </c>
+      <c r="D327" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="23">
+      <c r="A328">
+        <v>20210721</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C328" s="3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="D328" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="23">
+      <c r="A329">
+        <v>20210721</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C329" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D329" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="23">
+      <c r="A330">
+        <v>20210721</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C330" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D330" t="s">
+        <v>35</v>
+      </c>
+      <c r="G330" s="2"/>
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="1:8" ht="23">
+      <c r="A331">
+        <v>20210721</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C331" s="3">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D331" t="s">
+        <v>35</v>
+      </c>
+      <c r="G331" s="2"/>
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="1:8" ht="23">
+      <c r="A332">
+        <v>20210721</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C332" s="3">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D332" t="s">
+        <v>35</v>
+      </c>
+      <c r="G332" s="2"/>
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" spans="1:8" ht="23">
+      <c r="A333">
+        <v>20210721</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C333" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D333" t="s">
+        <v>35</v>
+      </c>
+      <c r="G333" s="2"/>
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" spans="1:8" ht="23">
+      <c r="A334">
+        <v>20210721</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C334" s="3">
+        <v>5.4399999999999997E-2</v>
+      </c>
+      <c r="D334" t="s">
+        <v>35</v>
+      </c>
+      <c r="G334" s="2"/>
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="1:8" ht="23">
+      <c r="A335">
+        <v>20210721</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C335" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D335" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" ht="23">
+      <c r="A336">
+        <v>20210721</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C336" s="3">
+        <v>0.1014</v>
+      </c>
+      <c r="D336" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="23">
+      <c r="A337">
+        <v>20210721</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C337" s="3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="23">
+      <c r="A338">
+        <v>20210721</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C338" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D338" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="23">
+      <c r="A339">
+        <v>20210721</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C339" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D339" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="23">
+      <c r="A340">
+        <v>20210721</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C340" s="3">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="D340" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="23">
+      <c r="A341">
+        <v>20210721</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="3">
+        <v>0.50580000000000003</v>
+      </c>
+      <c r="D341" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="23">
+      <c r="A342">
+        <v>20210721</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" s="3">
+        <v>8.8300000000000003E-2</v>
+      </c>
+      <c r="D342" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="23">
+      <c r="A343">
+        <v>20210721</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D343" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="23">
+      <c r="A344">
+        <v>20210721</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C344" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D344" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="23">
+      <c r="A345">
+        <v>20210722</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D345" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="23">
+      <c r="A346">
+        <v>20210722</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D346" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="23">
+      <c r="A347">
+        <v>20210722</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C347" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D347" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="23">
+      <c r="A348">
+        <v>20210722</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D348" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="23">
+      <c r="A349">
+        <v>20210722</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C349" s="3">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="23">
+      <c r="A350">
+        <v>20210722</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C350" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="23">
+      <c r="A351">
+        <v>20210722</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C351" s="3">
+        <v>0.3856</v>
+      </c>
+      <c r="D351" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="23">
+      <c r="A352">
+        <v>20210722</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C352" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D352" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="23">
+      <c r="A353">
+        <v>20210722</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C353" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D353" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="23">
+      <c r="A354">
+        <v>20210722</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D354" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="23">
+      <c r="A355">
+        <v>20210722</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D355" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="23">
+      <c r="A356">
+        <v>20210722</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D356" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="23">
+      <c r="A357">
+        <v>20210722</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C357" s="3">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="D357" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="23">
+      <c r="A358">
+        <v>20210722</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C358" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D358" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="23">
+      <c r="A359">
+        <v>20210722</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C359" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D359" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="23">
+      <c r="A360">
+        <v>20210722</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C360" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D360" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="23">
+      <c r="A361">
+        <v>20210722</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C361" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D361" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="23">
+      <c r="A362">
+        <v>20210722</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C362" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D362" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="23">
+      <c r="A363">
+        <v>20210722</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" s="3">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="D363" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="23">
+      <c r="A364">
+        <v>20210722</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C364" s="3">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="D364" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="23">
+      <c r="A365">
+        <v>20210722</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C365" s="3">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="23">
+      <c r="A366">
+        <v>20210722</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C366" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D366" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="23">
+      <c r="A367">
+        <v>20210722</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C367" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D367" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="23">
+      <c r="A368">
+        <v>20210722</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C368" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D368" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="23">
+      <c r="A369">
+        <v>20210722</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369" s="3">
+        <v>1.1599999999999999E-2</v>
+      </c>
+      <c r="D369" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="23">
+      <c r="A370">
+        <v>20210722</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D370" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="23">
+      <c r="A371">
+        <v>20210722</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C371" s="3">
+        <v>0.46579999999999999</v>
+      </c>
+      <c r="D371" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="23">
+      <c r="A372">
+        <v>20210722</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C372" s="3">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="D372" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="23">
+      <c r="A373">
+        <v>20210722</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C373" s="3">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="23">
+      <c r="A374">
+        <v>20210722</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C374" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="23">
+      <c r="A375">
+        <v>20210722</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C375" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D375" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="23">
+      <c r="A376">
+        <v>20210722</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C376" s="3">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="23">
+      <c r="A377">
+        <v>20210722</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C377" s="3">
+        <v>2.29E-2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="23">
+      <c r="A378">
+        <v>20210722</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C378" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D378" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="23">
+      <c r="A379">
+        <v>20210722</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D379" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="23">
+      <c r="A380">
+        <v>20210722</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="3">
+        <v>2.53E-2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="23">
+      <c r="A381">
+        <v>20210722</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C381" s="3">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="D381" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="23">
+      <c r="A382">
+        <v>20210722</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C382" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D382" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="23">
+      <c r="A383">
+        <v>20210722</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C383" s="3">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="23">
+      <c r="A384">
+        <v>20210722</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C384" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D384" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="23">
+      <c r="A385">
+        <v>20210722</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C385" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="23">
+      <c r="A386">
+        <v>20210722</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C386" s="3">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="D386" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="23">
+      <c r="A387">
+        <v>20210722</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C387" s="3">
+        <v>0.1346</v>
+      </c>
+      <c r="D387" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="23">
+      <c r="A388">
+        <v>20210722</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C388" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D388" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="23">
+      <c r="A389">
+        <v>20210722</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C389" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D389" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="23">
+      <c r="A390">
+        <v>20210722</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" s="3">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="D390" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="23">
+      <c r="A391">
+        <v>20210722</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C391" s="3">
+        <v>2.76E-2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="23">
+      <c r="A392">
+        <v>20210722</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C392" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D392" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="23">
+      <c r="A393">
+        <v>20210722</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C393" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="23">
+      <c r="A394">
+        <v>20210723</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D394" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="23">
+      <c r="A395">
+        <v>20210723</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C395" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D395" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="23">
+      <c r="A396">
+        <v>20210723</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D396" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="23">
+      <c r="A397">
+        <v>20210723</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C397" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D397" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="23">
+      <c r="A398">
+        <v>20210723</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C398" s="3">
+        <v>2.06E-2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="23">
+      <c r="A399">
+        <v>20210723</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C399" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D399" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="23">
+      <c r="A400">
+        <v>20210723</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C400" s="3">
+        <v>0.35880000000000001</v>
+      </c>
+      <c r="D400" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="23">
+      <c r="A401">
+        <v>20210723</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C401" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D401" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="23">
+      <c r="A402">
+        <v>20210723</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C402" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D402" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="23">
+      <c r="A403">
+        <v>20210723</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D403" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="23">
+      <c r="A404">
+        <v>20210723</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C404" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D404" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="23">
+      <c r="A405">
+        <v>20210723</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C405" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D405" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="23">
+      <c r="A406">
+        <v>20210723</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C406" s="3">
+        <v>6.4100000000000004E-2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="23">
+      <c r="A407">
+        <v>20210723</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C407" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D407" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="23">
+      <c r="A408">
+        <v>20210723</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C408" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D408" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="23">
+      <c r="A409">
+        <v>20210723</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C409" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D409" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="23">
+      <c r="A410">
+        <v>20210723</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C410" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D410" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="23">
+      <c r="A411">
+        <v>20210723</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C411" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D411" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="23">
+      <c r="A412">
+        <v>20210723</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C412" s="3">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="23">
+      <c r="A413">
+        <v>20210723</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C413" s="3">
+        <v>0.3216</v>
+      </c>
+      <c r="D413" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="23">
+      <c r="A414">
+        <v>20210723</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" s="3">
+        <v>5.4699999999999999E-2</v>
+      </c>
+      <c r="D414" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="23">
+      <c r="A415">
+        <v>20210723</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C415" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D415" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="23">
+      <c r="A416">
+        <v>20210723</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D416" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="23">
+      <c r="A417">
+        <v>20210723</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C417" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D417" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="23">
+      <c r="A418">
+        <v>20210723</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C418" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="23">
+      <c r="A419">
+        <v>20210723</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C419" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D419" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="23">
+      <c r="A420">
+        <v>20210723</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C420" s="3">
+        <v>0.49409999999999998</v>
+      </c>
+      <c r="D420" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="23">
+      <c r="A421">
+        <v>20210723</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C421" s="3">
+        <v>1.46E-2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="23">
+      <c r="A422">
+        <v>20210723</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C422" s="3">
+        <v>1.4800000000000001E-2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="23">
+      <c r="A423">
+        <v>20210723</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C423" s="3">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="23">
+      <c r="A424">
+        <v>20210723</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C424" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D424" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="23">
+      <c r="A425">
+        <v>20210723</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C425" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="23">
+      <c r="A426">
+        <v>20210723</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C426" s="3">
+        <v>2.8299999999999999E-2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="23">
+      <c r="A427">
+        <v>20210723</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C427" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D427" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="23">
+      <c r="A428">
+        <v>20210723</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C428" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D428" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="23">
+      <c r="A429">
+        <v>20210723</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C429" s="3">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="23">
+      <c r="A430">
+        <v>20210723</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C430" s="3">
+        <v>0.80879999999999996</v>
+      </c>
+      <c r="D430" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="23">
+      <c r="A431">
+        <v>20210723</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C431" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="23">
+      <c r="A432">
+        <v>20210723</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C432" s="3">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="23">
+      <c r="A433">
+        <v>20210723</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C433" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D433" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="23">
+      <c r="A434">
+        <v>20210723</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C434" s="3">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="23">
+      <c r="A435">
+        <v>20210723</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C435" s="3">
+        <v>2.63E-2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="23">
+      <c r="A436">
+        <v>20210723</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C436" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D436" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="23">
+      <c r="A437">
+        <v>20210723</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C437" s="3">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D437" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="23">
+      <c r="A438">
+        <v>20210723</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C438" s="3">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="D438" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="23">
+      <c r="A439">
+        <v>20210723</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C439" s="3">
+        <v>0.57889999999999997</v>
+      </c>
+      <c r="D439" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="23">
+      <c r="A440">
+        <v>20210723</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C440" s="3">
+        <v>0.1018</v>
+      </c>
+      <c r="D440" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="23">
+      <c r="A441">
+        <v>20210723</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C441" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D441" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="23">
+      <c r="A442">
+        <v>20210723</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C442" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CFB877-9EBA-A147-AFA9-D83E5DAD4A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDDD271-C233-B14D-B177-8A878DDE03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K442"/>
+  <dimension ref="A1:K540"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A414" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
+      <selection activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6786,6 +6786,1378 @@
         <v>35</v>
       </c>
     </row>
+    <row r="443" spans="1:4" ht="23">
+      <c r="A443">
+        <v>20210726</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="23">
+      <c r="A444">
+        <v>20210726</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C444" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D444" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="23">
+      <c r="A445">
+        <v>20210726</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D445" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="23">
+      <c r="A446">
+        <v>20210726</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C446" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D446" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="23">
+      <c r="A447">
+        <v>20210726</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C447" s="3">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D447" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="23">
+      <c r="A448">
+        <v>20210726</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C448" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D448" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="23">
+      <c r="A449">
+        <v>20210726</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C449" s="3">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="D449" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="23">
+      <c r="A450">
+        <v>20210726</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C450" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D450" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="23">
+      <c r="A451">
+        <v>20210726</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C451" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D451" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="23">
+      <c r="A452">
+        <v>20210726</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D452" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="23">
+      <c r="A453">
+        <v>20210726</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C453" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D453" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="23">
+      <c r="A454">
+        <v>20210726</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C454" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D454" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="23">
+      <c r="A455">
+        <v>20210726</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C455" s="3">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D455" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="23">
+      <c r="A456">
+        <v>20210726</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C456" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D456" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="23">
+      <c r="A457">
+        <v>20210726</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C457" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D457" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="23">
+      <c r="A458">
+        <v>20210726</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C458" s="3">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="D458" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="23">
+      <c r="A459">
+        <v>20210726</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C459" s="3">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="D459" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="23">
+      <c r="A460">
+        <v>20210726</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C460" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="23">
+      <c r="A461">
+        <v>20210726</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C461" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="23">
+      <c r="A462">
+        <v>20210726</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C462" s="3">
+        <v>0.29659999999999997</v>
+      </c>
+      <c r="D462" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="23">
+      <c r="A463">
+        <v>20210726</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C463" s="3">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="D463" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="23">
+      <c r="A464">
+        <v>20210726</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C464" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D464" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="23">
+      <c r="A465">
+        <v>20210726</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C465" s="3">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="D465" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="23">
+      <c r="A466">
+        <v>20210726</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C466" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D466" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="23">
+      <c r="A467">
+        <v>20210726</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C467" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="D467" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="23">
+      <c r="A468">
+        <v>20210726</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C468" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D468" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="23">
+      <c r="A469">
+        <v>20210726</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C469" s="3">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="D469" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="23">
+      <c r="A470">
+        <v>20210726</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C470" s="3">
+        <v>1.77E-2</v>
+      </c>
+      <c r="D470" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="23">
+      <c r="A471">
+        <v>20210726</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C471" s="3">
+        <v>2.1600000000000001E-2</v>
+      </c>
+      <c r="D471" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="23">
+      <c r="A472">
+        <v>20210726</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C472" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="D472" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="23">
+      <c r="A473">
+        <v>20210726</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C473" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D473" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="23">
+      <c r="A474">
+        <v>20210726</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C474" s="3">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="D474" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="23">
+      <c r="A475">
+        <v>20210726</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C475" s="3">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D475" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="23">
+      <c r="A476">
+        <v>20210726</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C476" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D476" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="23">
+      <c r="A477">
+        <v>20210726</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C477" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D477" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="23">
+      <c r="A478">
+        <v>20210726</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C478" s="3">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="D478" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="23">
+      <c r="A479">
+        <v>20210726</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C479" s="3">
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="D479" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="23">
+      <c r="A480">
+        <v>20210726</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C480" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="D480" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="23">
+      <c r="A481">
+        <v>20210726</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C481" s="3">
+        <v>4.7600000000000003E-2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="23">
+      <c r="A482">
+        <v>20210726</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C482" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D482" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="23">
+      <c r="A483">
+        <v>20210726</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C483" s="3">
+        <v>7.3400000000000007E-2</v>
+      </c>
+      <c r="D483" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" ht="23">
+      <c r="A484">
+        <v>20210726</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C484" s="3">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="D484" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="23">
+      <c r="A485">
+        <v>20210726</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C485" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D485" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" ht="23">
+      <c r="A486">
+        <v>20210726</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C486" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" ht="23">
+      <c r="A487">
+        <v>20210726</v>
+      </c>
+      <c r="B487" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C487" s="3">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D487" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" ht="23">
+      <c r="A488">
+        <v>20210726</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C488" s="3">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="D488" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" ht="23">
+      <c r="A489">
+        <v>20210726</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C489" s="3">
+        <v>0.13819999999999999</v>
+      </c>
+      <c r="D489" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" ht="23">
+      <c r="A490">
+        <v>20210726</v>
+      </c>
+      <c r="B490" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C490" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D490" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" ht="23">
+      <c r="A491">
+        <v>20210726</v>
+      </c>
+      <c r="B491" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C491" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D491" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" ht="23">
+      <c r="A492">
+        <v>20210727</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D492" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" ht="23">
+      <c r="A493">
+        <v>20210727</v>
+      </c>
+      <c r="B493" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C493" s="3">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D493" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="23">
+      <c r="A494">
+        <v>20210727</v>
+      </c>
+      <c r="B494" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C494" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D494" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="23">
+      <c r="A495">
+        <v>20210727</v>
+      </c>
+      <c r="B495" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C495" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D495" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" ht="23">
+      <c r="A496">
+        <v>20210727</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C496" s="3">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="23">
+      <c r="A497">
+        <v>20210727</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C497" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D497" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="23">
+      <c r="A498">
+        <v>20210727</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C498" s="3">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="D498" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" ht="23">
+      <c r="A499">
+        <v>20210727</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C499" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D499" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" ht="23">
+      <c r="A500">
+        <v>20210727</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C500" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D500" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" ht="23">
+      <c r="A501">
+        <v>20210727</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C501" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D501" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="23">
+      <c r="A502">
+        <v>20210727</v>
+      </c>
+      <c r="B502" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C502" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D502" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="23">
+      <c r="A503">
+        <v>20210727</v>
+      </c>
+      <c r="B503" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C503" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D503" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="23">
+      <c r="A504">
+        <v>20210727</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C504" s="3">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" ht="23">
+      <c r="A505">
+        <v>20210727</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C505" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D505" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" ht="23">
+      <c r="A506">
+        <v>20210727</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C506" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D506" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="23">
+      <c r="A507">
+        <v>20210727</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C507" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D507" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" ht="23">
+      <c r="A508">
+        <v>20210727</v>
+      </c>
+      <c r="B508" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C508" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D508" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" ht="23">
+      <c r="A509">
+        <v>20210727</v>
+      </c>
+      <c r="B509" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C509" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D509" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="23">
+      <c r="A510">
+        <v>20210727</v>
+      </c>
+      <c r="B510" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C510" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" ht="23">
+      <c r="A511">
+        <v>20210727</v>
+      </c>
+      <c r="B511" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C511" s="3">
+        <v>0.31979999999999997</v>
+      </c>
+      <c r="D511" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="23">
+      <c r="A512">
+        <v>20210727</v>
+      </c>
+      <c r="B512" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C512" s="3">
+        <v>8.0199999999999994E-2</v>
+      </c>
+      <c r="D512" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" ht="23">
+      <c r="A513">
+        <v>20210727</v>
+      </c>
+      <c r="B513" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C513" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D513" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" ht="23">
+      <c r="A514">
+        <v>20210727</v>
+      </c>
+      <c r="B514" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C514" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="D514" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="23">
+      <c r="A515">
+        <v>20210727</v>
+      </c>
+      <c r="B515" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C515" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D515" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" ht="23">
+      <c r="A516">
+        <v>20210727</v>
+      </c>
+      <c r="B516" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C516" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D516" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" ht="23">
+      <c r="A517">
+        <v>20210727</v>
+      </c>
+      <c r="B517" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D517" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="23">
+      <c r="A518">
+        <v>20210727</v>
+      </c>
+      <c r="B518" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C518" s="3">
+        <v>0.53210000000000002</v>
+      </c>
+      <c r="D518" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="23">
+      <c r="A519">
+        <v>20210727</v>
+      </c>
+      <c r="B519" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C519" s="3">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D519" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="23">
+      <c r="A520">
+        <v>20210727</v>
+      </c>
+      <c r="B520" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C520" s="3">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="D520" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="23">
+      <c r="A521">
+        <v>20210727</v>
+      </c>
+      <c r="B521" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C521" s="3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D521" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="23">
+      <c r="A522">
+        <v>20210727</v>
+      </c>
+      <c r="B522" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C522" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D522" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" ht="23">
+      <c r="A523">
+        <v>20210727</v>
+      </c>
+      <c r="B523" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C523" s="3">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D523" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" ht="23">
+      <c r="A524">
+        <v>20210727</v>
+      </c>
+      <c r="B524" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C524" s="3">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="D524" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" ht="23">
+      <c r="A525">
+        <v>20210727</v>
+      </c>
+      <c r="B525" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C525" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="D525" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" ht="23">
+      <c r="A526">
+        <v>20210727</v>
+      </c>
+      <c r="B526" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C526" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D526" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" ht="23">
+      <c r="A527">
+        <v>20210727</v>
+      </c>
+      <c r="B527" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C527" s="3">
+        <v>2.12E-2</v>
+      </c>
+      <c r="D527" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" ht="23">
+      <c r="A528">
+        <v>20210727</v>
+      </c>
+      <c r="B528" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C528" s="3">
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="D528" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" ht="23">
+      <c r="A529">
+        <v>20210727</v>
+      </c>
+      <c r="B529" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C529" s="3">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="D529" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" ht="23">
+      <c r="A530">
+        <v>20210727</v>
+      </c>
+      <c r="B530" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C530" s="3">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="D530" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" ht="23">
+      <c r="A531">
+        <v>20210727</v>
+      </c>
+      <c r="B531" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C531" s="3">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D531" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="23">
+      <c r="A532">
+        <v>20210727</v>
+      </c>
+      <c r="B532" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C532" s="3">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D532" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="23">
+      <c r="A533">
+        <v>20210727</v>
+      </c>
+      <c r="B533" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C533" s="3">
+        <v>3.4799999999999998E-2</v>
+      </c>
+      <c r="D533" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" ht="23">
+      <c r="A534">
+        <v>20210727</v>
+      </c>
+      <c r="B534" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C534" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D534" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" ht="23">
+      <c r="A535">
+        <v>20210727</v>
+      </c>
+      <c r="B535" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C535" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D535" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" ht="23">
+      <c r="A536">
+        <v>20210727</v>
+      </c>
+      <c r="B536" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C536" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D536" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" ht="23">
+      <c r="A537">
+        <v>20210727</v>
+      </c>
+      <c r="B537" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C537" s="3">
+        <v>0.55789999999999995</v>
+      </c>
+      <c r="D537" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="23">
+      <c r="A538">
+        <v>20210727</v>
+      </c>
+      <c r="B538" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C538" s="3">
+        <v>0.1159</v>
+      </c>
+      <c r="D538" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" ht="23">
+      <c r="A539">
+        <v>20210727</v>
+      </c>
+      <c r="B539" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C539" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D539" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" ht="23">
+      <c r="A540">
+        <v>20210727</v>
+      </c>
+      <c r="B540" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C540" s="3">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D540" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDDD271-C233-B14D-B177-8A878DDE03E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E34666-7CA5-9B40-A552-6DFFBFD5881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K540"/>
+  <dimension ref="A1:K589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="B522" sqref="B522"/>
+    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
+      <selection activeCell="B585" sqref="B585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8158,6 +8158,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="541" spans="1:4" ht="23">
+      <c r="A541">
+        <v>20210728</v>
+      </c>
+      <c r="B541" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C541" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="D541" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" ht="23">
+      <c r="A542">
+        <v>20210728</v>
+      </c>
+      <c r="B542" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C542" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D542" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="23">
+      <c r="A543">
+        <v>20210728</v>
+      </c>
+      <c r="B543" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C543" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D543" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="23">
+      <c r="A544">
+        <v>20210728</v>
+      </c>
+      <c r="B544" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C544" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D544" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" ht="23">
+      <c r="A545">
+        <v>20210728</v>
+      </c>
+      <c r="B545" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C545" s="3">
+        <v>2.07E-2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" ht="23">
+      <c r="A546">
+        <v>20210728</v>
+      </c>
+      <c r="B546" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C546" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D546" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="23">
+      <c r="A547">
+        <v>20210728</v>
+      </c>
+      <c r="B547" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C547" s="3">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="D547" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" ht="23">
+      <c r="A548">
+        <v>20210728</v>
+      </c>
+      <c r="B548" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C548" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D548" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="23">
+      <c r="A549">
+        <v>20210728</v>
+      </c>
+      <c r="B549" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C549" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D549" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="23">
+      <c r="A550">
+        <v>20210728</v>
+      </c>
+      <c r="B550" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C550" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D550" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="23">
+      <c r="A551">
+        <v>20210728</v>
+      </c>
+      <c r="B551" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C551" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="D551" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" ht="23">
+      <c r="A552">
+        <v>20210728</v>
+      </c>
+      <c r="B552" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C552" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D552" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="23">
+      <c r="A553">
+        <v>20210728</v>
+      </c>
+      <c r="B553" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C553" s="3">
+        <v>5.1700000000000003E-2</v>
+      </c>
+      <c r="D553" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="23">
+      <c r="A554">
+        <v>20210728</v>
+      </c>
+      <c r="B554" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C554" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D554" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" ht="23">
+      <c r="A555">
+        <v>20210728</v>
+      </c>
+      <c r="B555" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C555" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D555" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" ht="23">
+      <c r="A556">
+        <v>20210728</v>
+      </c>
+      <c r="B556" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C556" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D556" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" ht="23">
+      <c r="A557">
+        <v>20210728</v>
+      </c>
+      <c r="B557" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C557" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D557" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="23">
+      <c r="A558">
+        <v>20210728</v>
+      </c>
+      <c r="B558" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C558" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D558" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" ht="23">
+      <c r="A559">
+        <v>20210728</v>
+      </c>
+      <c r="B559" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C559" s="3">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="D559" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="23">
+      <c r="A560">
+        <v>20210728</v>
+      </c>
+      <c r="B560" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C560" s="3">
+        <v>0.28610000000000002</v>
+      </c>
+      <c r="D560" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="23">
+      <c r="A561">
+        <v>20210728</v>
+      </c>
+      <c r="B561" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C561" s="3">
+        <v>6.8199999999999997E-2</v>
+      </c>
+      <c r="D561" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="23">
+      <c r="A562">
+        <v>20210728</v>
+      </c>
+      <c r="B562" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C562" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D562" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" ht="23">
+      <c r="A563">
+        <v>20210728</v>
+      </c>
+      <c r="B563" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C563" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+      <c r="D563" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" ht="23">
+      <c r="A564">
+        <v>20210728</v>
+      </c>
+      <c r="B564" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C564" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="D564" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="565" spans="1:4" ht="23">
+      <c r="A565">
+        <v>20210728</v>
+      </c>
+      <c r="B565" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C565" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D565" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="566" spans="1:4" ht="23">
+      <c r="A566">
+        <v>20210728</v>
+      </c>
+      <c r="B566" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C566" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D566" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="23">
+      <c r="A567">
+        <v>20210728</v>
+      </c>
+      <c r="B567" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C567" s="3">
+        <v>0.45540000000000003</v>
+      </c>
+      <c r="D567" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="568" spans="1:4" ht="23">
+      <c r="A568">
+        <v>20210728</v>
+      </c>
+      <c r="B568" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C568" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D568" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="23">
+      <c r="A569">
+        <v>20210728</v>
+      </c>
+      <c r="B569" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C569" s="3">
+        <v>1.38E-2</v>
+      </c>
+      <c r="D569" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="23">
+      <c r="A570">
+        <v>20210728</v>
+      </c>
+      <c r="B570" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C570" s="3">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="D570" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="23">
+      <c r="A571">
+        <v>20210728</v>
+      </c>
+      <c r="B571" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C571" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D571" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" ht="23">
+      <c r="A572">
+        <v>20210728</v>
+      </c>
+      <c r="B572" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C572" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D572" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" ht="23">
+      <c r="A573">
+        <v>20210728</v>
+      </c>
+      <c r="B573" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C573" s="3">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="D573" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="574" spans="1:4" ht="23">
+      <c r="A574">
+        <v>20210728</v>
+      </c>
+      <c r="B574" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C574" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="D574" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="575" spans="1:4" ht="23">
+      <c r="A575">
+        <v>20210728</v>
+      </c>
+      <c r="B575" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C575" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D575" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="576" spans="1:4" ht="23">
+      <c r="A576">
+        <v>20210728</v>
+      </c>
+      <c r="B576" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C576" s="3">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="D576" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:4" ht="23">
+      <c r="A577">
+        <v>20210728</v>
+      </c>
+      <c r="B577" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C577" s="3">
+        <v>0.79820000000000002</v>
+      </c>
+      <c r="D577" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="23">
+      <c r="A578">
+        <v>20210728</v>
+      </c>
+      <c r="B578" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C578" s="3">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D578" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="23">
+      <c r="A579">
+        <v>20210728</v>
+      </c>
+      <c r="B579" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C579" s="3">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="D579" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="23">
+      <c r="A580">
+        <v>20210728</v>
+      </c>
+      <c r="B580" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C580" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+      <c r="D580" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" ht="23">
+      <c r="A581">
+        <v>20210728</v>
+      </c>
+      <c r="B581" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C581" s="3">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="D581" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="23">
+      <c r="A582">
+        <v>20210728</v>
+      </c>
+      <c r="B582" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C582" s="3">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D582" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="23">
+      <c r="A583">
+        <v>20210728</v>
+      </c>
+      <c r="B583" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C583" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D583" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="23">
+      <c r="A584">
+        <v>20210728</v>
+      </c>
+      <c r="B584" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C584" s="3">
+        <v>1.95E-2</v>
+      </c>
+      <c r="D584" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="23">
+      <c r="A585">
+        <v>20210728</v>
+      </c>
+      <c r="B585" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C585" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D585" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="23">
+      <c r="A586">
+        <v>20210728</v>
+      </c>
+      <c r="B586" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C586" s="3">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="D586" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="23">
+      <c r="A587">
+        <v>20210728</v>
+      </c>
+      <c r="B587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C587" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="D587" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="23">
+      <c r="A588">
+        <v>20210728</v>
+      </c>
+      <c r="B588" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C588" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D588" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" ht="23">
+      <c r="A589">
+        <v>20210728</v>
+      </c>
+      <c r="B589" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C589" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="D589" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E34666-7CA5-9B40-A552-6DFFBFD5881C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6D1C1-6941-3E4B-8AC7-DDDAF2598E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K589"/>
+  <dimension ref="A1:K638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A571" workbookViewId="0">
-      <selection activeCell="B585" sqref="B585"/>
+    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
+      <selection activeCell="B635" sqref="B635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8844,6 +8844,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="590" spans="1:4" ht="23">
+      <c r="A590">
+        <v>20210729</v>
+      </c>
+      <c r="B590" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C590" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D590" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" ht="23">
+      <c r="A591">
+        <v>20210729</v>
+      </c>
+      <c r="B591" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C591" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D591" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" ht="23">
+      <c r="A592">
+        <v>20210729</v>
+      </c>
+      <c r="B592" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C592" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D592" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" ht="23">
+      <c r="A593">
+        <v>20210729</v>
+      </c>
+      <c r="B593" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C593" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D593" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="594" spans="1:4" ht="23">
+      <c r="A594">
+        <v>20210729</v>
+      </c>
+      <c r="B594" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C594" s="3">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="D594" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="595" spans="1:4" ht="23">
+      <c r="A595">
+        <v>20210729</v>
+      </c>
+      <c r="B595" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C595" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D595" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="23">
+      <c r="A596">
+        <v>20210729</v>
+      </c>
+      <c r="B596" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C596" s="3">
+        <v>0.32840000000000003</v>
+      </c>
+      <c r="D596" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="597" spans="1:4" ht="23">
+      <c r="A597">
+        <v>20210729</v>
+      </c>
+      <c r="B597" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C597" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D597" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" ht="23">
+      <c r="A598">
+        <v>20210729</v>
+      </c>
+      <c r="B598" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C598" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D598" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" ht="23">
+      <c r="A599">
+        <v>20210729</v>
+      </c>
+      <c r="B599" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D599" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" ht="23">
+      <c r="A600">
+        <v>20210729</v>
+      </c>
+      <c r="B600" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C600" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D600" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" ht="23">
+      <c r="A601">
+        <v>20210729</v>
+      </c>
+      <c r="B601" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C601" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D601" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" ht="23">
+      <c r="A602">
+        <v>20210729</v>
+      </c>
+      <c r="B602" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C602" s="3">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D602" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="23">
+      <c r="A603">
+        <v>20210729</v>
+      </c>
+      <c r="B603" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C603" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D603" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" ht="23">
+      <c r="A604">
+        <v>20210729</v>
+      </c>
+      <c r="B604" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C604" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D604" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" ht="23">
+      <c r="A605">
+        <v>20210729</v>
+      </c>
+      <c r="B605" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C605" s="3">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D605" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" ht="23">
+      <c r="A606">
+        <v>20210729</v>
+      </c>
+      <c r="B606" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C606" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D606" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="23">
+      <c r="A607">
+        <v>20210729</v>
+      </c>
+      <c r="B607" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C607" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D607" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="23">
+      <c r="A608">
+        <v>20210729</v>
+      </c>
+      <c r="B608" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C608" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D608" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="23">
+      <c r="A609">
+        <v>20210729</v>
+      </c>
+      <c r="B609" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C609" s="3">
+        <v>0.33539999999999998</v>
+      </c>
+      <c r="D609" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="23">
+      <c r="A610">
+        <v>20210729</v>
+      </c>
+      <c r="B610" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C610" s="3">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="D610" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="23">
+      <c r="A611">
+        <v>20210729</v>
+      </c>
+      <c r="B611" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C611" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D611" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" ht="23">
+      <c r="A612">
+        <v>20210729</v>
+      </c>
+      <c r="B612" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C612" s="3">
+        <v>7.6E-3</v>
+      </c>
+      <c r="D612" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="23">
+      <c r="A613">
+        <v>20210729</v>
+      </c>
+      <c r="B613" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C613" s="3">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D613" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" ht="23">
+      <c r="A614">
+        <v>20210729</v>
+      </c>
+      <c r="B614" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C614" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D614" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" ht="23">
+      <c r="A615">
+        <v>20210729</v>
+      </c>
+      <c r="B615" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D615" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" ht="23">
+      <c r="A616">
+        <v>20210729</v>
+      </c>
+      <c r="B616" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C616" s="3">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="D616" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="617" spans="1:4" ht="23">
+      <c r="A617">
+        <v>20210729</v>
+      </c>
+      <c r="B617" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C617" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D617" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="618" spans="1:4" ht="23">
+      <c r="A618">
+        <v>20210729</v>
+      </c>
+      <c r="B618" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C618" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+      <c r="D618" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="23">
+      <c r="A619">
+        <v>20210729</v>
+      </c>
+      <c r="B619" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C619" s="3">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="D619" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="620" spans="1:4" ht="23">
+      <c r="A620">
+        <v>20210729</v>
+      </c>
+      <c r="B620" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C620" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D620" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="23">
+      <c r="A621">
+        <v>20210729</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621" s="3">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="D621" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" ht="23">
+      <c r="A622">
+        <v>20210729</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C622" s="3">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="D622" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="23">
+      <c r="A623">
+        <v>20210729</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C623" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="D623" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" ht="23">
+      <c r="A624">
+        <v>20210729</v>
+      </c>
+      <c r="B624" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C624" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D624" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" ht="23">
+      <c r="A625">
+        <v>20210729</v>
+      </c>
+      <c r="B625" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C625" s="3">
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="D625" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" ht="23">
+      <c r="A626">
+        <v>20210729</v>
+      </c>
+      <c r="B626" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C626" s="3">
+        <v>0.77149999999999996</v>
+      </c>
+      <c r="D626" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" ht="23">
+      <c r="A627">
+        <v>20210729</v>
+      </c>
+      <c r="B627" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C627" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="D627" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" ht="23">
+      <c r="A628">
+        <v>20210729</v>
+      </c>
+      <c r="B628" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C628" s="3">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="D628" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" ht="23">
+      <c r="A629">
+        <v>20210729</v>
+      </c>
+      <c r="B629" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C629" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D629" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="23">
+      <c r="A630">
+        <v>20210729</v>
+      </c>
+      <c r="B630" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C630" s="3">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="D630" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="23">
+      <c r="A631">
+        <v>20210729</v>
+      </c>
+      <c r="B631" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C631" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="D631" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="23">
+      <c r="A632">
+        <v>20210729</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C632" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D632" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="633" spans="1:4" ht="23">
+      <c r="A633">
+        <v>20210729</v>
+      </c>
+      <c r="B633" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C633" s="3">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="D633" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="634" spans="1:4" ht="23">
+      <c r="A634">
+        <v>20210729</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C634" s="3">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="D634" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="23">
+      <c r="A635">
+        <v>20210729</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C635" s="3">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="D635" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="636" spans="1:4" ht="23">
+      <c r="A636">
+        <v>20210729</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C636" s="3">
+        <v>0.1032</v>
+      </c>
+      <c r="D636" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" ht="23">
+      <c r="A637">
+        <v>20210729</v>
+      </c>
+      <c r="B637" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C637" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D637" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="23">
+      <c r="A638">
+        <v>20210729</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C638" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D638" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B6D1C1-6941-3E4B-8AC7-DDDAF2598E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA5CD7-90BB-A64B-85E6-C1DFBB04C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K638"/>
+  <dimension ref="A1:K687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A623" workbookViewId="0">
-      <selection activeCell="B635" sqref="B635"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="B670" sqref="B670"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9530,6 +9530,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="639" spans="1:4" ht="23">
+      <c r="A639">
+        <v>20210730</v>
+      </c>
+      <c r="B639" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C639" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D639" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="23">
+      <c r="A640">
+        <v>20210730</v>
+      </c>
+      <c r="B640" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640" s="3">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D640" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="23">
+      <c r="A641">
+        <v>20210730</v>
+      </c>
+      <c r="B641" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C641" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D641" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="23">
+      <c r="A642">
+        <v>20210730</v>
+      </c>
+      <c r="B642" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C642" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D642" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="23">
+      <c r="A643">
+        <v>20210730</v>
+      </c>
+      <c r="B643" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C643" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D643" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" ht="23">
+      <c r="A644">
+        <v>20210730</v>
+      </c>
+      <c r="B644" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C644" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D644" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="23">
+      <c r="A645">
+        <v>20210730</v>
+      </c>
+      <c r="B645" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C645" s="3">
+        <v>0.34820000000000001</v>
+      </c>
+      <c r="D645" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="23">
+      <c r="A646">
+        <v>20210730</v>
+      </c>
+      <c r="B646" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C646" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D646" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" ht="23">
+      <c r="A647">
+        <v>20210730</v>
+      </c>
+      <c r="B647" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C647" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D647" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="648" spans="1:4" ht="23">
+      <c r="A648">
+        <v>20210730</v>
+      </c>
+      <c r="B648" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D648" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="649" spans="1:4" ht="23">
+      <c r="A649">
+        <v>20210730</v>
+      </c>
+      <c r="B649" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C649" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D649" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="23">
+      <c r="A650">
+        <v>20210730</v>
+      </c>
+      <c r="B650" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C650" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D650" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="651" spans="1:4" ht="23">
+      <c r="A651">
+        <v>20210730</v>
+      </c>
+      <c r="B651" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C651" s="3">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="D651" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" ht="23">
+      <c r="A652">
+        <v>20210730</v>
+      </c>
+      <c r="B652" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C652" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D652" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" ht="23">
+      <c r="A653">
+        <v>20210730</v>
+      </c>
+      <c r="B653" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C653" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D653" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="23">
+      <c r="A654">
+        <v>20210730</v>
+      </c>
+      <c r="B654" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C654" s="3">
+        <v>1.32E-2</v>
+      </c>
+      <c r="D654" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="23">
+      <c r="A655">
+        <v>20210730</v>
+      </c>
+      <c r="B655" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C655" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="D655" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="23">
+      <c r="A656">
+        <v>20210730</v>
+      </c>
+      <c r="B656" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C656" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="D656" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="23">
+      <c r="A657">
+        <v>20210730</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C657" s="3">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D657" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="23">
+      <c r="A658">
+        <v>20210730</v>
+      </c>
+      <c r="B658" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C658" s="3">
+        <v>0.33179999999999998</v>
+      </c>
+      <c r="D658" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="659" spans="1:4" ht="23">
+      <c r="A659">
+        <v>20210730</v>
+      </c>
+      <c r="B659" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C659" s="3">
+        <v>6.2799999999999995E-2</v>
+      </c>
+      <c r="D659" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="660" spans="1:4" ht="23">
+      <c r="A660">
+        <v>20210730</v>
+      </c>
+      <c r="B660" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C660" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D660" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="23">
+      <c r="A661">
+        <v>20210730</v>
+      </c>
+      <c r="B661" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C661" s="3">
+        <v>6.6E-3</v>
+      </c>
+      <c r="D661" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="662" spans="1:4" ht="23">
+      <c r="A662">
+        <v>20210730</v>
+      </c>
+      <c r="B662" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C662" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D662" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" ht="23">
+      <c r="A663">
+        <v>20210730</v>
+      </c>
+      <c r="B663" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C663" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="D663" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="23">
+      <c r="A664">
+        <v>20210730</v>
+      </c>
+      <c r="B664" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C664" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D664" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="23">
+      <c r="A665">
+        <v>20210730</v>
+      </c>
+      <c r="B665" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C665" s="3">
+        <v>0.49530000000000002</v>
+      </c>
+      <c r="D665" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="666" spans="1:4" ht="23">
+      <c r="A666">
+        <v>20210730</v>
+      </c>
+      <c r="B666" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C666" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D666" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="667" spans="1:4" ht="23">
+      <c r="A667">
+        <v>20210730</v>
+      </c>
+      <c r="B667" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C667" s="3">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D667" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="23">
+      <c r="A668">
+        <v>20210730</v>
+      </c>
+      <c r="B668" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C668" s="3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="D668" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="669" spans="1:4" ht="23">
+      <c r="A669">
+        <v>20210730</v>
+      </c>
+      <c r="B669" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C669" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D669" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" ht="23">
+      <c r="A670">
+        <v>20210730</v>
+      </c>
+      <c r="B670" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C670" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D670" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="671" spans="1:4" ht="23">
+      <c r="A671">
+        <v>20210730</v>
+      </c>
+      <c r="B671" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C671" s="3">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="D671" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="672" spans="1:4" ht="23">
+      <c r="A672">
+        <v>20210730</v>
+      </c>
+      <c r="B672" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C672" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D672" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="23">
+      <c r="A673">
+        <v>20210730</v>
+      </c>
+      <c r="B673" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C673" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="D673" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="674" spans="1:4" ht="23">
+      <c r="A674">
+        <v>20210730</v>
+      </c>
+      <c r="B674" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C674" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D674" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="23">
+      <c r="A675">
+        <v>20210730</v>
+      </c>
+      <c r="B675" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C675" s="3">
+        <v>0.81279999999999997</v>
+      </c>
+      <c r="D675" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="23">
+      <c r="A676">
+        <v>20210730</v>
+      </c>
+      <c r="B676" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C676" s="3">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="D676" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="23">
+      <c r="A677">
+        <v>20210730</v>
+      </c>
+      <c r="B677" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C677" s="3">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="D677" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="23">
+      <c r="A678">
+        <v>20210730</v>
+      </c>
+      <c r="B678" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C678" s="3">
+        <v>1.06E-2</v>
+      </c>
+      <c r="D678" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="23">
+      <c r="A679">
+        <v>20210730</v>
+      </c>
+      <c r="B679" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C679" s="3">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="D679" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="23">
+      <c r="A680">
+        <v>20210730</v>
+      </c>
+      <c r="B680" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680" s="3">
+        <v>2.3400000000000001E-2</v>
+      </c>
+      <c r="D680" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="23">
+      <c r="A681">
+        <v>20210730</v>
+      </c>
+      <c r="B681" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C681" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D681" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="23">
+      <c r="A682">
+        <v>20210730</v>
+      </c>
+      <c r="B682" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C682" s="3">
+        <v>1.29E-2</v>
+      </c>
+      <c r="D682" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="23">
+      <c r="A683">
+        <v>20210730</v>
+      </c>
+      <c r="B683" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C683" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D683" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="23">
+      <c r="A684">
+        <v>20210730</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C684" s="3">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="D684" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="23">
+      <c r="A685">
+        <v>20210730</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C685" s="3">
+        <v>7.7899999999999997E-2</v>
+      </c>
+      <c r="D685" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="23">
+      <c r="A686">
+        <v>20210730</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C686" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D686" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="23">
+      <c r="A687">
+        <v>20210730</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C687" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D687" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DA5CD7-90BB-A64B-85E6-C1DFBB04C207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC03A3-B79E-FF4C-A18E-4147279A2065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K687"/>
+  <dimension ref="A1:K736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
-      <selection activeCell="B670" sqref="B670"/>
+    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
+      <selection activeCell="B728" sqref="B728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10216,6 +10216,692 @@
         <v>35</v>
       </c>
     </row>
+    <row r="688" spans="1:4" ht="23">
+      <c r="A688">
+        <v>20210802</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C688" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D688" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="689" spans="1:4" ht="23">
+      <c r="A689">
+        <v>20210802</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C689" s="3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D689" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="690" spans="1:4" ht="23">
+      <c r="A690">
+        <v>20210802</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C690" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D690" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="23">
+      <c r="A691">
+        <v>20210802</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C691" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D691" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="692" spans="1:4" ht="23">
+      <c r="A692">
+        <v>20210802</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C692" s="3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="D692" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="23">
+      <c r="A693">
+        <v>20210802</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C693" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="D693" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="694" spans="1:4" ht="23">
+      <c r="A694">
+        <v>20210802</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C694" s="3">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="D694" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="695" spans="1:4" ht="23">
+      <c r="A695">
+        <v>20210802</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C695" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D695" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="23">
+      <c r="A696">
+        <v>20210802</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C696" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D696" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="697" spans="1:4" ht="23">
+      <c r="A697">
+        <v>20210802</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C697" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D697" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="23">
+      <c r="A698">
+        <v>20210802</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C698" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D698" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" ht="23">
+      <c r="A699">
+        <v>20210802</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D699" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" ht="23">
+      <c r="A700">
+        <v>20210802</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C700" s="3">
+        <v>5.16E-2</v>
+      </c>
+      <c r="D700" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="701" spans="1:4" ht="23">
+      <c r="A701">
+        <v>20210802</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C701" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D701" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="702" spans="1:4" ht="23">
+      <c r="A702">
+        <v>20210802</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C702" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D702" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="23">
+      <c r="A703">
+        <v>20210802</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C703" s="3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="D703" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="704" spans="1:4" ht="23">
+      <c r="A704">
+        <v>20210802</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C704" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="D704" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" ht="23">
+      <c r="A705">
+        <v>20210802</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C705" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="D705" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="706" spans="1:4" ht="23">
+      <c r="A706">
+        <v>20210802</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C706" s="3">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="D706" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="707" spans="1:4" ht="23">
+      <c r="A707">
+        <v>20210802</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C707" s="3">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="D707" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="23">
+      <c r="A708">
+        <v>20210802</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C708" s="3">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D708" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="709" spans="1:4" ht="23">
+      <c r="A709">
+        <v>20210802</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C709" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D709" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="23">
+      <c r="A710">
+        <v>20210802</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C710" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="D710" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="23">
+      <c r="A711">
+        <v>20210802</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C711" s="3">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D711" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="23">
+      <c r="A712">
+        <v>20210802</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C712" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D712" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="23">
+      <c r="A713">
+        <v>20210802</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C713" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D713" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="23">
+      <c r="A714">
+        <v>20210802</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C714" s="3">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="D714" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="23">
+      <c r="A715">
+        <v>20210802</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C715" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D715" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="23">
+      <c r="A716">
+        <v>20210802</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C716" s="3">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D716" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="23">
+      <c r="A717">
+        <v>20210802</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C717" s="3">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="D717" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" ht="23">
+      <c r="A718">
+        <v>20210802</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C718" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D718" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="23">
+      <c r="A719">
+        <v>20210802</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C719" s="3">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="D719" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" ht="23">
+      <c r="A720">
+        <v>20210802</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C720" s="3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D720" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="23">
+      <c r="A721">
+        <v>20210802</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C721" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D721" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="722" spans="1:4" ht="23">
+      <c r="A722">
+        <v>20210802</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C722" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D722" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="723" spans="1:4" ht="23">
+      <c r="A723">
+        <v>20210802</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C723" s="3">
+        <v>1.66E-2</v>
+      </c>
+      <c r="D723" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="23">
+      <c r="A724">
+        <v>20210802</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C724" s="3">
+        <v>0.83009999999999995</v>
+      </c>
+      <c r="D724" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="725" spans="1:4" ht="23">
+      <c r="A725">
+        <v>20210802</v>
+      </c>
+      <c r="B725" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C725" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D725" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" ht="23">
+      <c r="A726">
+        <v>20210802</v>
+      </c>
+      <c r="B726" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C726" s="3">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D726" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" ht="23">
+      <c r="A727">
+        <v>20210802</v>
+      </c>
+      <c r="B727" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C727" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D727" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="728" spans="1:4" ht="23">
+      <c r="A728">
+        <v>20210802</v>
+      </c>
+      <c r="B728" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C728" s="3">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="D728" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="729" spans="1:4" ht="23">
+      <c r="A729">
+        <v>20210802</v>
+      </c>
+      <c r="B729" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C729" s="3">
+        <v>2.69E-2</v>
+      </c>
+      <c r="D729" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="23">
+      <c r="A730">
+        <v>20210802</v>
+      </c>
+      <c r="B730" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C730" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D730" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="731" spans="1:4" ht="23">
+      <c r="A731">
+        <v>20210802</v>
+      </c>
+      <c r="B731" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C731" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D731" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="23">
+      <c r="A732">
+        <v>20210802</v>
+      </c>
+      <c r="B732" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C732" s="3">
+        <v>1.52E-2</v>
+      </c>
+      <c r="D732" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" ht="23">
+      <c r="A733">
+        <v>20210802</v>
+      </c>
+      <c r="B733" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C733" s="3">
+        <v>0.61550000000000005</v>
+      </c>
+      <c r="D733" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" ht="23">
+      <c r="A734">
+        <v>20210802</v>
+      </c>
+      <c r="B734" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C734" s="3">
+        <v>0.1082</v>
+      </c>
+      <c r="D734" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" ht="23">
+      <c r="A735">
+        <v>20210802</v>
+      </c>
+      <c r="B735" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C735" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D735" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" ht="23">
+      <c r="A736">
+        <v>20210802</v>
+      </c>
+      <c r="B736" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C736" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D736" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1_Data_Collection/Export/tw_capital_flows.xlsx
+++ b/1_Data_Collection/Export/tw_capital_flows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aron/Documents/GitHub/Data/Stock_Forecast/1_Data_Collection/Export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BC03A3-B79E-FF4C-A18E-4147279A2065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF4928F-C3BC-CD44-BFCA-C74DE8739D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="500" windowWidth="28260" windowHeight="16880" xr2:uid="{6B76D0A3-66AA-774E-9DA6-9EC92C826BB8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="37">
   <si>
     <t>水泥</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13C6E-BDCF-F04C-8352-E2581AF96D5F}">
-  <dimension ref="A1:K736"/>
+  <dimension ref="A1:K932"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A715" workbookViewId="0">
-      <selection activeCell="B728" sqref="B728"/>
+    <sheetView tabSelected="1" topLeftCell="A906" workbookViewId="0">
+      <selection activeCell="A914" sqref="A914"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -10902,6 +10902,2750 @@
         <v>35</v>
       </c>
     </row>
+    <row r="737" spans="1:4" ht="23">
+      <c r="A737">
+        <v>20210803</v>
+      </c>
+      <c r="B737" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C737" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D737" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="23">
+      <c r="A738">
+        <v>20210803</v>
+      </c>
+      <c r="B738" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C738" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D738" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" ht="23">
+      <c r="A739">
+        <v>20210803</v>
+      </c>
+      <c r="B739" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C739" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="D739" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="23">
+      <c r="A740">
+        <v>20210803</v>
+      </c>
+      <c r="B740" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C740" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D740" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" ht="23">
+      <c r="A741">
+        <v>20210803</v>
+      </c>
+      <c r="B741" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C741" s="3">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D741" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" ht="23">
+      <c r="A742">
+        <v>20210803</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C742" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="D742" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" ht="23">
+      <c r="A743">
+        <v>20210803</v>
+      </c>
+      <c r="B743" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C743" s="3">
+        <v>0.3256</v>
+      </c>
+      <c r="D743" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" ht="23">
+      <c r="A744">
+        <v>20210803</v>
+      </c>
+      <c r="B744" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C744" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D744" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" ht="23">
+      <c r="A745">
+        <v>20210803</v>
+      </c>
+      <c r="B745" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C745" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="D745" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" ht="23">
+      <c r="A746">
+        <v>20210803</v>
+      </c>
+      <c r="B746" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C746" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D746" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" ht="23">
+      <c r="A747">
+        <v>20210803</v>
+      </c>
+      <c r="B747" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C747" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D747" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="23">
+      <c r="A748">
+        <v>20210803</v>
+      </c>
+      <c r="B748" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C748" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D748" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="23">
+      <c r="A749">
+        <v>20210803</v>
+      </c>
+      <c r="B749" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C749" s="3">
+        <v>5.8200000000000002E-2</v>
+      </c>
+      <c r="D749" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="23">
+      <c r="A750">
+        <v>20210803</v>
+      </c>
+      <c r="B750" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C750" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D750" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="23">
+      <c r="A751">
+        <v>20210803</v>
+      </c>
+      <c r="B751" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C751" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D751" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="23">
+      <c r="A752">
+        <v>20210803</v>
+      </c>
+      <c r="B752" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C752" s="3">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="D752" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="23">
+      <c r="A753">
+        <v>20210803</v>
+      </c>
+      <c r="B753" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C753" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D753" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="23">
+      <c r="A754">
+        <v>20210803</v>
+      </c>
+      <c r="B754" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C754" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D754" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="23">
+      <c r="A755">
+        <v>20210803</v>
+      </c>
+      <c r="B755" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C755" s="3">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D755" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="23">
+      <c r="A756">
+        <v>20210803</v>
+      </c>
+      <c r="B756" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C756" s="3">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D756" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="23">
+      <c r="A757">
+        <v>20210803</v>
+      </c>
+      <c r="B757" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C757" s="3">
+        <v>6.6900000000000001E-2</v>
+      </c>
+      <c r="D757" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="23">
+      <c r="A758">
+        <v>20210803</v>
+      </c>
+      <c r="B758" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C758" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D758" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="23">
+      <c r="A759">
+        <v>20210803</v>
+      </c>
+      <c r="B759" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C759" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+      <c r="D759" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="23">
+      <c r="A760">
+        <v>20210803</v>
+      </c>
+      <c r="B760" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C760" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="D760" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="23">
+      <c r="A761">
+        <v>20210803</v>
+      </c>
+      <c r="B761" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C761" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D761" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="23">
+      <c r="A762">
+        <v>20210803</v>
+      </c>
+      <c r="B762" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C762" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D762" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="23">
+      <c r="A763">
+        <v>20210803</v>
+      </c>
+      <c r="B763" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C763" s="3">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="D763" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="23">
+      <c r="A764">
+        <v>20210803</v>
+      </c>
+      <c r="B764" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C764" s="3">
+        <v>1.18E-2</v>
+      </c>
+      <c r="D764" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="23">
+      <c r="A765">
+        <v>20210803</v>
+      </c>
+      <c r="B765" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C765" s="3">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D765" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="23">
+      <c r="A766">
+        <v>20210803</v>
+      </c>
+      <c r="B766" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C766" s="3">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D766" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="23">
+      <c r="A767">
+        <v>20210803</v>
+      </c>
+      <c r="B767" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C767" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D767" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="23">
+      <c r="A768">
+        <v>20210803</v>
+      </c>
+      <c r="B768" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C768" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="D768" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="23">
+      <c r="A769">
+        <v>20210803</v>
+      </c>
+      <c r="B769" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C769" s="3">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="D769" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="23">
+      <c r="A770">
+        <v>20210803</v>
+      </c>
+      <c r="B770" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C770" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D770" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="23">
+      <c r="A771">
+        <v>20210803</v>
+      </c>
+      <c r="B771" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C771" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D771" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="23">
+      <c r="A772">
+        <v>20210803</v>
+      </c>
+      <c r="B772" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C772" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+      <c r="D772" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="23">
+      <c r="A773">
+        <v>20210803</v>
+      </c>
+      <c r="B773" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C773" s="3">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="D773" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="23">
+      <c r="A774">
+        <v>20210803</v>
+      </c>
+      <c r="B774" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C774" s="3">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D774" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="23">
+      <c r="A775">
+        <v>20210803</v>
+      </c>
+      <c r="B775" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C775" s="3">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="D775" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="23">
+      <c r="A776">
+        <v>20210803</v>
+      </c>
+      <c r="B776" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C776" s="3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D776" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="23">
+      <c r="A777">
+        <v>20210803</v>
+      </c>
+      <c r="B777" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C777" s="3">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="D777" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="23">
+      <c r="A778">
+        <v>20210803</v>
+      </c>
+      <c r="B778" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C778" s="3">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="D778" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="23">
+      <c r="A779">
+        <v>20210803</v>
+      </c>
+      <c r="B779" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C779" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D779" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="23">
+      <c r="A780">
+        <v>20210803</v>
+      </c>
+      <c r="B780" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C780" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D780" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="23">
+      <c r="A781">
+        <v>20210803</v>
+      </c>
+      <c r="B781" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C781" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="D781" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="23">
+      <c r="A782">
+        <v>20210803</v>
+      </c>
+      <c r="B782" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C782" s="3">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="D782" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="23">
+      <c r="A783">
+        <v>20210803</v>
+      </c>
+      <c r="B783" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C783" s="3">
+        <v>0.1348</v>
+      </c>
+      <c r="D783" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="23">
+      <c r="A784">
+        <v>20210803</v>
+      </c>
+      <c r="B784" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C784" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D784" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="785" spans="1:4" ht="23">
+      <c r="A785">
+        <v>20210803</v>
+      </c>
+      <c r="B785" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C785" s="3">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="D785" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="23">
+      <c r="A786">
+        <v>20210804</v>
+      </c>
+      <c r="B786" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C786" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D786" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="787" spans="1:4" ht="23">
+      <c r="A787">
+        <v>20210804</v>
+      </c>
+      <c r="B787" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C787" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D787" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="23">
+      <c r="A788">
+        <v>20210804</v>
+      </c>
+      <c r="B788" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C788" s="3">
+        <v>1.21E-2</v>
+      </c>
+      <c r="D788" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="23">
+      <c r="A789">
+        <v>20210804</v>
+      </c>
+      <c r="B789" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C789" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D789" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="23">
+      <c r="A790">
+        <v>20210804</v>
+      </c>
+      <c r="B790" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C790" s="3">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="D790" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="23">
+      <c r="A791">
+        <v>20210804</v>
+      </c>
+      <c r="B791" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C791" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D791" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="23">
+      <c r="A792">
+        <v>20210804</v>
+      </c>
+      <c r="B792" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C792" s="3">
+        <v>0.1862</v>
+      </c>
+      <c r="D792" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="793" spans="1:4" ht="23">
+      <c r="A793">
+        <v>20210804</v>
+      </c>
+      <c r="B793" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C793" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D793" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="794" spans="1:4" ht="23">
+      <c r="A794">
+        <v>20210804</v>
+      </c>
+      <c r="B794" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C794" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D794" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="23">
+      <c r="A795">
+        <v>20210804</v>
+      </c>
+      <c r="B795" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C795" s="3">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="D795" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="796" spans="1:4" ht="23">
+      <c r="A796">
+        <v>20210804</v>
+      </c>
+      <c r="B796" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C796" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D796" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" ht="23">
+      <c r="A797">
+        <v>20210804</v>
+      </c>
+      <c r="B797" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C797" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D797" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" ht="23">
+      <c r="A798">
+        <v>20210804</v>
+      </c>
+      <c r="B798" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C798" s="3">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="D798" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="23">
+      <c r="A799">
+        <v>20210804</v>
+      </c>
+      <c r="B799" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C799" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D799" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="23">
+      <c r="A800">
+        <v>20210804</v>
+      </c>
+      <c r="B800" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C800" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D800" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="23">
+      <c r="A801">
+        <v>20210804</v>
+      </c>
+      <c r="B801" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C801" s="3">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="D801" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="23">
+      <c r="A802">
+        <v>20210804</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C802" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="D802" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="23">
+      <c r="A803">
+        <v>20210804</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C803" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D803" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="23">
+      <c r="A804">
+        <v>20210804</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C804" s="3">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D804" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="23">
+      <c r="A805">
+        <v>20210804</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C805" s="3">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="D805" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="23">
+      <c r="A806">
+        <v>20210804</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C806" s="3">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="D806" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="23">
+      <c r="A807">
+        <v>20210804</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C807" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D807" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="23">
+      <c r="A808">
+        <v>20210804</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C808" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D808" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="23">
+      <c r="A809">
+        <v>20210804</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C809" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="D809" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="23">
+      <c r="A810">
+        <v>20210804</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C810" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D810" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="23">
+      <c r="A811">
+        <v>20210804</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C811" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D811" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="23">
+      <c r="A812">
+        <v>20210804</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C812" s="3">
+        <v>0.64610000000000001</v>
+      </c>
+      <c r="D812" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="23">
+      <c r="A813">
+        <v>20210804</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C813" s="3">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D813" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="23">
+      <c r="A814">
+        <v>20210804</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C814" s="3">
+        <v>1.37E-2</v>
+      </c>
+      <c r="D814" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="23">
+      <c r="A815">
+        <v>20210804</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C815" s="3">
+        <v>1.6799999999999999E-2</v>
+      </c>
+      <c r="D815" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="23">
+      <c r="A816">
+        <v>20210804</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C816" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D816" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="23">
+      <c r="A817">
+        <v>20210804</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C817" s="3">
+        <v>1.2699999999999999E-2</v>
+      </c>
+      <c r="D817" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="23">
+      <c r="A818">
+        <v>20210804</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C818" s="3">
+        <v>3.3399999999999999E-2</v>
+      </c>
+      <c r="D818" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="23">
+      <c r="A819">
+        <v>20210804</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C819" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D819" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="23">
+      <c r="A820">
+        <v>20210804</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C820" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D820" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="23">
+      <c r="A821">
+        <v>20210804</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C821" s="3">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="D821" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="23">
+      <c r="A822">
+        <v>20210804</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C822" s="3">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="D822" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="23">
+      <c r="A823">
+        <v>20210804</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C823" s="3">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="D823" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="23">
+      <c r="A824">
+        <v>20210804</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C824" s="3">
+        <v>3.73E-2</v>
+      </c>
+      <c r="D824" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="23">
+      <c r="A825">
+        <v>20210804</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C825" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="D825" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="23">
+      <c r="A826">
+        <v>20210804</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C826" s="3">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="D826" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="23">
+      <c r="A827">
+        <v>20210804</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C827" s="3">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D827" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="23">
+      <c r="A828">
+        <v>20210804</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C828" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D828" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="23">
+      <c r="A829">
+        <v>20210804</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C829" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D829" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="23">
+      <c r="A830">
+        <v>20210804</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C830" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D830" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="23">
+      <c r="A831">
+        <v>20210804</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C831" s="3">
+        <v>0.63109999999999999</v>
+      </c>
+      <c r="D831" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="23">
+      <c r="A832">
+        <v>20210804</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C832" s="3">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="D832" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="23">
+      <c r="A833">
+        <v>20210804</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C833" s="3">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D833" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="23">
+      <c r="A834">
+        <v>20210804</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C834" s="3">
+        <v>3.27E-2</v>
+      </c>
+      <c r="D834" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="23">
+      <c r="A835">
+        <v>20210805</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C835" s="3">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="D835" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="23">
+      <c r="A836">
+        <v>20210805</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C836" s="3">
+        <v>8.6E-3</v>
+      </c>
+      <c r="D836" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="23">
+      <c r="A837">
+        <v>20210805</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C837" s="3">
+        <v>1.17E-2</v>
+      </c>
+      <c r="D837" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="23">
+      <c r="A838">
+        <v>20210805</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C838" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D838" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="23">
+      <c r="A839">
+        <v>20210805</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C839" s="3">
+        <v>2.76E-2</v>
+      </c>
+      <c r="D839" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="23">
+      <c r="A840">
+        <v>20210805</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C840" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="D840" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="23">
+      <c r="A841">
+        <v>20210805</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C841" s="3">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="D841" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="23">
+      <c r="A842">
+        <v>20210805</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C842" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D842" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="23">
+      <c r="A843">
+        <v>20210805</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C843" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D843" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="23">
+      <c r="A844">
+        <v>20210805</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C844" s="3">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D844" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="23">
+      <c r="A845">
+        <v>20210805</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C845" s="3">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D845" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="23">
+      <c r="A846">
+        <v>20210805</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C846" s="3">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="D846" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="23">
+      <c r="A847">
+        <v>20210805</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C847" s="3">
+        <v>0.13569999999999999</v>
+      </c>
+      <c r="D847" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="23">
+      <c r="A848">
+        <v>20210805</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C848" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D848" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="23">
+      <c r="A849">
+        <v>20210805</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C849" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="D849" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="23">
+      <c r="A850">
+        <v>20210805</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C850" s="3">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="D850" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="23">
+      <c r="A851">
+        <v>20210805</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C851" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="D851" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="852" spans="1:4" ht="23">
+      <c r="A852">
+        <v>20210805</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C852" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="D852" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="853" spans="1:4" ht="23">
+      <c r="A853">
+        <v>20210805</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C853" s="3">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D853" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="854" spans="1:4" ht="23">
+      <c r="A854">
+        <v>20210805</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C854" s="3">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="D854" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="855" spans="1:4" ht="23">
+      <c r="A855">
+        <v>20210805</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C855" s="3">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="D855" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="856" spans="1:4" ht="23">
+      <c r="A856">
+        <v>20210805</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C856" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="D856" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="857" spans="1:4" ht="23">
+      <c r="A857">
+        <v>20210805</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C857" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D857" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="858" spans="1:4" ht="23">
+      <c r="A858">
+        <v>20210805</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C858" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="D858" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="859" spans="1:4" ht="23">
+      <c r="A859">
+        <v>20210805</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C859" s="3">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="D859" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="860" spans="1:4" ht="23">
+      <c r="A860">
+        <v>20210805</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C860" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D860" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="861" spans="1:4" ht="23">
+      <c r="A861">
+        <v>20210805</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C861" s="3">
+        <v>0.63919999999999999</v>
+      </c>
+      <c r="D861" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="862" spans="1:4" ht="23">
+      <c r="A862">
+        <v>20210805</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C862" s="3">
+        <v>1.89E-2</v>
+      </c>
+      <c r="D862" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="863" spans="1:4" ht="23">
+      <c r="A863">
+        <v>20210805</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C863" s="3">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D863" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="864" spans="1:4" ht="23">
+      <c r="A864">
+        <v>20210805</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C864" s="3">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="D864" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="865" spans="1:4" ht="23">
+      <c r="A865">
+        <v>20210805</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C865" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D865" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="866" spans="1:4" ht="23">
+      <c r="A866">
+        <v>20210805</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C866" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+      <c r="D866" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="867" spans="1:4" ht="23">
+      <c r="A867">
+        <v>20210805</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C867" s="3">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="D867" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="868" spans="1:4" ht="23">
+      <c r="A868">
+        <v>20210805</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C868" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D868" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="869" spans="1:4" ht="23">
+      <c r="A869">
+        <v>20210805</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C869" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D869" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="870" spans="1:4" ht="23">
+      <c r="A870">
+        <v>20210805</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C870" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D870" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="871" spans="1:4" ht="23">
+      <c r="A871">
+        <v>20210805</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C871" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D871" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="872" spans="1:4" ht="23">
+      <c r="A872">
+        <v>20210805</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C872" s="3">
+        <v>1.44E-2</v>
+      </c>
+      <c r="D872" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="873" spans="1:4" ht="23">
+      <c r="A873">
+        <v>20210805</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C873" s="3">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="D873" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="874" spans="1:4" ht="23">
+      <c r="A874">
+        <v>20210805</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C874" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D874" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="875" spans="1:4" ht="23">
+      <c r="A875">
+        <v>20210805</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C875" s="3">
+        <v>5.8799999999999998E-2</v>
+      </c>
+      <c r="D875" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="876" spans="1:4" ht="23">
+      <c r="A876">
+        <v>20210805</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C876" s="3">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="D876" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="877" spans="1:4" ht="23">
+      <c r="A877">
+        <v>20210805</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C877" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="D877" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="878" spans="1:4" ht="23">
+      <c r="A878">
+        <v>20210805</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C878" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="D878" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="879" spans="1:4" ht="23">
+      <c r="A879">
+        <v>20210805</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C879" s="3">
+        <v>2.75E-2</v>
+      </c>
+      <c r="D879" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="880" spans="1:4" ht="23">
+      <c r="A880">
+        <v>20210805</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C880" s="3">
+        <v>0.64510000000000001</v>
+      </c>
+      <c r="D880" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="881" spans="1:4" ht="23">
+      <c r="A881">
+        <v>20210805</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C881" s="3">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="D881" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" ht="23">
+      <c r="A882">
+        <v>20210805</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C882" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D882" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="883" spans="1:4" ht="23">
+      <c r="A883">
+        <v>20210805</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C883" s="3">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="D883" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="884" spans="1:4" ht="23">
+      <c r="A884">
+        <v>20210806</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C884" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="D884" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="885" spans="1:4" ht="23">
+      <c r="A885">
+        <v>20210806</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C885" s="3">
+        <v>1.12E-2</v>
+      </c>
+      <c r="D885" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="886" spans="1:4" ht="23">
+      <c r="A886">
+        <v>20210806</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C886" s="3">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="D886" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="887" spans="1:4" ht="23">
+      <c r="A887">
+        <v>20210806</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C887" s="3">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D887" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="888" spans="1:4" ht="23">
+      <c r="A888">
+        <v>20210806</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C888" s="3">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D888" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="889" spans="1:4" ht="23">
+      <c r="A889">
+        <v>20210806</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C889" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="D889" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="890" spans="1:4" ht="23">
+      <c r="A890">
+        <v>20210806</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C890" s="3">
+        <v>0.31219999999999998</v>
+      </c>
+      <c r="D890" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="891" spans="1:4" ht="23">
+      <c r="A891">
+        <v>20210806</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C891" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D891" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="892" spans="1:4" ht="23">
+      <c r="A892">
+        <v>20210806</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C892" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="D892" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="893" spans="1:4" ht="23">
+      <c r="A893">
+        <v>20210806</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C893" s="3">
+        <v>4.3E-3</v>
+      </c>
+      <c r="D893" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="894" spans="1:4" ht="23">
+      <c r="A894">
+        <v>20210806</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C894" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D894" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="895" spans="1:4" ht="23">
+      <c r="A895">
+        <v>20210806</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C895" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="D895" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="896" spans="1:4" ht="23">
+      <c r="A896">
+        <v>20210806</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C896" s="3">
+        <v>6.88E-2</v>
+      </c>
+      <c r="D896" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="897" spans="1:4" ht="23">
+      <c r="A897">
+        <v>20210806</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C897" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D897" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="898" spans="1:4" ht="23">
+      <c r="A898">
+        <v>20210806</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C898" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D898" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="899" spans="1:4" ht="23">
+      <c r="A899">
+        <v>20210806</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C899" s="3">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D899" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="900" spans="1:4" ht="23">
+      <c r="A900">
+        <v>20210806</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C900" s="3">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D900" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="901" spans="1:4" ht="23">
+      <c r="A901">
+        <v>20210806</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901" s="3">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D901" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="902" spans="1:4" ht="23">
+      <c r="A902">
+        <v>20210806</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C902" s="3">
+        <v>2.52E-2</v>
+      </c>
+      <c r="D902" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="903" spans="1:4" ht="23">
+      <c r="A903">
+        <v>20210806</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C903" s="3">
+        <v>0.3251</v>
+      </c>
+      <c r="D903" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="904" spans="1:4" ht="23">
+      <c r="A904">
+        <v>20210806</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C904" s="3">
+        <v>5.7099999999999998E-2</v>
+      </c>
+      <c r="D904" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="905" spans="1:4" ht="23">
+      <c r="A905">
+        <v>20210806</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C905" s="3">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="D905" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="906" spans="1:4" ht="23">
+      <c r="A906">
+        <v>20210806</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C906" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D906" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="907" spans="1:4" ht="23">
+      <c r="A907">
+        <v>20210806</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C907" s="3">
+        <v>1.01E-2</v>
+      </c>
+      <c r="D907" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="908" spans="1:4" ht="23">
+      <c r="A908">
+        <v>20210806</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C908" s="3">
+        <v>2.35E-2</v>
+      </c>
+      <c r="D908" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="909" spans="1:4" ht="23">
+      <c r="A909">
+        <v>20210806</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C909" s="3">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D909" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="910" spans="1:4" ht="23">
+      <c r="A910">
+        <v>20210806</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C910" s="3">
+        <v>0.50890000000000002</v>
+      </c>
+      <c r="D910" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="911" spans="1:4" ht="23">
+      <c r="A911">
+        <v>20210806</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C911" s="3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D911" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="912" spans="1:4" ht="23">
+      <c r="A912">
+        <v>20210806</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C912" s="3">
+        <v>1.7299999999999999E-2</v>
+      </c>
+      <c r="D912" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="913" spans="1:4" ht="23">
+      <c r="A913">
+        <v>20210806</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C913" s="3">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="D913" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="914" spans="1:4" ht="23">
+      <c r="A914">
+        <v>20210806</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C914" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="D914" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="915" spans="1:4" ht="23">
+      <c r="A915">
+        <v>20210806</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C915" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D915" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="916" spans="1:4" ht="23">
+      <c r="A916">
+        <v>20210806</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C916" s="3">
+        <v>2.47E-2</v>
+      </c>
+      <c r="D916" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="917" spans="1:4" ht="23">
+      <c r="A917">
+        <v>20210806</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C917" s="3">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D917" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="918" spans="1:4" ht="23">
+      <c r="A918">
+        <v>20210806</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C918" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D918" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="919" spans="1:4" ht="23">
+      <c r="A919">
+        <v>20210806</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C919" s="3">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="D919" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="920" spans="1:4" ht="23">
+      <c r="A920">
+        <v>20210806</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C920" s="3">
+        <v>0.78590000000000004</v>
+      </c>
+      <c r="D920" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="921" spans="1:4" ht="23">
+      <c r="A921">
+        <v>20210806</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C921" s="3">
+        <v>1.11E-2</v>
+      </c>
+      <c r="D921" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="922" spans="1:4" ht="23">
+      <c r="A922">
+        <v>20210806</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C922" s="3">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="D922" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="923" spans="1:4" ht="23">
+      <c r="A923">
+        <v>20210806</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C923" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="D923" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="924" spans="1:4" ht="23">
+      <c r="A924">
+        <v>20210806</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C924" s="3">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="D924" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="925" spans="1:4" ht="23">
+      <c r="A925">
+        <v>20210806</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C925" s="3">
+        <v>3.61E-2</v>
+      </c>
+      <c r="D925" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="926" spans="1:4" ht="23">
+      <c r="A926">
+        <v>20210806</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C926" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="D926" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="927" spans="1:4" ht="23">
+      <c r="A927">
+        <v>20210806</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C927" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D927" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="928" spans="1:4" ht="23">
+      <c r="A928">
+        <v>20210806</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="3">
+        <v>5.7799999999999997E-2</v>
+      </c>
+      <c r="D928" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="929" spans="1:4" ht="23">
+      <c r="A929">
+        <v>20210806</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C929" s="3">
+        <v>0.58919999999999995</v>
+      </c>
+      <c r="D929" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="930" spans="1:4" ht="23">
+      <c r="A930">
+        <v>20210806</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C930" s="3">
+        <v>8.5099999999999995E-2</v>
+      </c>
+      <c r="D930" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="931" spans="1:4" ht="23">
+      <c r="A931">
+        <v>20210806</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C931" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D931" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="932" spans="1:4" ht="23">
+      <c r="A932">
+        <v>20210806</v>
+      </c>
+      <c r="B932" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C932" s="3">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="D932" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
